--- a/2/CFRP2_lap=20/l20.xlsx
+++ b/2/CFRP2_lap=20/l20.xlsx
@@ -75,6 +75,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">

--- a/2/CFRP2_lap=20/l20.xlsx
+++ b/2/CFRP2_lap=20/l20.xlsx
@@ -75,7 +75,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
